--- a/biology/Médecine/Bain_de_boue/Bain_de_boue.xlsx
+++ b/biology/Médecine/Bain_de_boue/Bain_de_boue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bain de boue est l'acte d'immerger ou de rouler son corps dans la boue, généralement alors argileuse, que la baignade soit faite dans un but thérapeutique ou par divertissement.
 </t>
@@ -511,7 +523,9 @@
           <t>Dans le monde animal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Divers animaux pratiquent le bain de boue, probablement pour se débarrasser de parasites et/ou protéger leur peau contre les UV solaires, la déshydratation...
 </t>
@@ -542,18 +556,16 @@
           <t>Chez l'Homme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bain de boue dans des boues médicinales (pélothérapie) est pratiqué depuis la Préhistoire[1] et disponible également dans certaines stations thermales dans le monde.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bain de boue dans des boues médicinales (pélothérapie) est pratiqué depuis la Préhistoire et disponible également dans certaines stations thermales dans le monde.
 Les bains de boue sont une pratique de certains festivals, souvent sous la forme d'un toboggan, quand la température le permet.
 			Entrainement physique en 1908
 			Bain de boue collectif en Turquie
 			Enfants jouant dans la boue
 			Bain de boue au festival Przystanek Woodstock.
-Illutation
-L'illutation désigne une application locale de boues thermales sur le corps.
-Elle permet au patient de bénéficier de leurs bienfaits sans s'immerger.
-Ce traitement est prescrit dans des pathologies neurologiques et rhumatismales comme les contractures, sciatalgies, rhumatismes, mal de dos, et traumatismes ostéoarticulaires.
 </t>
         </is>
       </c>
@@ -579,12 +591,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Chez l'Homme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illutation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'illutation désigne une application locale de boues thermales sur le corps.
+Elle permet au patient de bénéficier de leurs bienfaits sans s'immerger.
+Ce traitement est prescrit dans des pathologies neurologiques et rhumatismales comme les contractures, sciatalgies, rhumatismes, mal de dos, et traumatismes ostéoarticulaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bain_de_boue</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bain_de_boue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Lieux naturels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il existe plusieurs types de boues propices aux bains[2] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il existe plusieurs types de boues propices aux bains : 
 les lacs et les étangs
 l'eau de mer ou de rivière salée (la mer Morte entre la Jordanie et Israël)
 les sources chaudes (Calistoga, Californie)
